--- a/original_workbook/Template.xlsx
+++ b/original_workbook/Template.xlsx
@@ -5,24 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ginxserver\htdocs\NQCL_NQCL\original_workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ginxserver\htdocs\NQCL_LIMS\original_workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="315" windowWidth="14940" windowHeight="8640"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="33" r:id="rId1"/>
+    <sheet name="Template" sheetId="34" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$H$165</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>Analysis Report</t>
   </si>
@@ -72,9 +69,6 @@
     <t>Date Analysis Started:</t>
   </si>
   <si>
-    <t>Inj</t>
-  </si>
-  <si>
     <t>Amt of RS (mg):</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>% Water content:</t>
   </si>
   <si>
-    <t>Initial    Sample dilution</t>
-  </si>
-  <si>
     <t>1 mg of salt is equivalent to</t>
   </si>
   <si>
@@ -138,16 +129,7 @@
     <t>Mwt of compound in salt form:</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter name of compound in salt form. If salt convertion is not needed enter 1. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter name of compound in free base form. If salt convertion is not needed enter 1. </t>
-  </si>
-  <si>
     <t>Standard Dilution Factor</t>
-  </si>
-  <si>
-    <t>Initial    Standard dilution</t>
   </si>
   <si>
     <t>Powder Weight (mg)</t>
@@ -538,9 +520,6 @@
     <t>Average Normalised Response:</t>
   </si>
   <si>
-    <t>Desired Concetration (mg/mL):</t>
-  </si>
-  <si>
     <t>Amt Released (mg):</t>
   </si>
   <si>
@@ -559,36 +538,108 @@
     <t>Desired Sample Weight (mg):</t>
   </si>
   <si>
-    <t>Analysis Data:</t>
-  </si>
-  <si>
-    <t>Repeat Determination of Active Ingredient Dissolved</t>
-  </si>
-  <si>
-    <t>Dissolution Result Summary</t>
-  </si>
-  <si>
     <t>Capsule No.</t>
   </si>
   <si>
-    <t>Each Capsule/Tablet contains</t>
-  </si>
-  <si>
-    <t>Average Capsule/Tablet Content Weight (mg):</t>
+    <t>Please enter the required information in the cells highlighted in green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter molecular mass of compound in free base form. If salt conversion is NOT needed, enter 1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter molecular mass of compound in salt form. If salt conversion is NOT needed, enter 1. </t>
+  </si>
+  <si>
+    <t>Initial Standard dilution volume (mL):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Std Response Deviation </t>
+  </si>
+  <si>
+    <t>Mass of RS (mg):</t>
+  </si>
+  <si>
+    <t>Mass of WRS as free base (mg):</t>
+  </si>
+  <si>
+    <t>Purity correction (mg):</t>
+  </si>
+  <si>
+    <t>Concentration (mg/mL):</t>
+  </si>
+  <si>
+    <t>Desired Concentration (mg/mL):</t>
+  </si>
+  <si>
+    <t>Each Capsule contains</t>
+  </si>
+  <si>
+    <t>Average Capsule Content Weight (mg):</t>
+  </si>
+  <si>
+    <t>Initial Sample dilution Volume (mL):</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Dilution Sample transfer Volume (mL):</t>
+    </r>
+  </si>
+  <si>
+    <t>Comment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The content of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the sample as a percentage of the stated  label claim is </t>
+  </si>
+  <si>
+    <t>DISSOLUTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter molecular mass of compound in free base form. If salt convertion is NOT needed, enter 1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter molecular mass of compound in salt form. If salt convertion is NOT needed, enter 1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount  of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dissolved as a percentage of the stated  label claim is </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000\ &quot;mg&quot;"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="170" formatCode="0.0\ &quot;mg&quot;"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -770,6 +821,35 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -907,7 +987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1593,7 +1673,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1606,7 +1686,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1617,54 +1727,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1672,34 +1754,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1744,8 +1800,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
@@ -1845,9 +1902,6 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="24" borderId="41" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1860,16 +1914,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="25" borderId="44" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="21" fillId="24" borderId="40" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1899,13 +1947,7 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="24" borderId="47" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="55" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="22" fillId="24" borderId="50" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1950,18 +1992,12 @@
     </xf>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="17" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="22" fillId="25" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="24" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1975,19 +2011,10 @@
     <xf numFmtId="1" fontId="22" fillId="24" borderId="56" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2005,75 +2032,13 @@
     <xf numFmtId="10" fontId="21" fillId="0" borderId="51" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="25" borderId="46" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="34" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="36" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="26" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="26" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="35" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="26" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="26" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2089,14 +2054,7 @@
     <xf numFmtId="166" fontId="21" fillId="0" borderId="34" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="26" borderId="35" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="36" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="24" borderId="51" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2109,15 +2067,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2152,89 +2101,11 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="35" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="26" borderId="35" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="26" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="26" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="45" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="21" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="46" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="58" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="59" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="60" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="24" borderId="61" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="59" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="63" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2245,15 +2116,8 @@
     <xf numFmtId="2" fontId="21" fillId="25" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="61" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="25" borderId="32" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2264,42 +2128,28 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="24" borderId="65" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="25" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="24" borderId="61" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="25" borderId="32" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="63" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="25" borderId="64" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="24" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="25" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,87 +2161,295 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="32" fillId="26" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="26" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="33" fillId="0" borderId="43" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="26" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="35" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="40" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="41" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="26" borderId="40" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="24" borderId="51" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="25" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="31" fillId="26" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="26" borderId="42" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="26" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="26" borderId="43" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="26" borderId="51" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="31" fillId="26" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="26" borderId="51" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="25" borderId="46" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="31" fillId="24" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="55" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="26" borderId="35" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="24" borderId="51" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="24" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="25" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="26" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="26" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="25" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="24" borderId="52" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -2432,12 +2490,89 @@
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="44" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="43"/>
     <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2737,16 +2872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A17:N174"/>
+  <dimension ref="A15:N133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="75" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="55.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" style="2" customWidth="1"/>
@@ -2755,64 +2887,112 @@
     <col min="5" max="5" width="39.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="39.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="30.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="15" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="54"/>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="154"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+    </row>
+    <row r="18" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="191"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+    </row>
+    <row r="19" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="101"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="159"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+    </row>
+    <row r="20" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="101"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+    </row>
+    <row r="21" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="110"/>
+    </row>
+    <row r="22" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="102"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="162"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+    </row>
+    <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="102"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -2824,36 +3004,38 @@
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="103"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+    </row>
+    <row r="27" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="103"/>
-    </row>
-    <row r="28" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+    </row>
+    <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="104"/>
-    </row>
-    <row r="29" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="164"/>
+    </row>
+    <row r="29" spans="1:14" s="12" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="188" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="190"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="165"/>
+      <c r="C29" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="131"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -2861,7 +3043,7 @@
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="9">
         <f>B28-B29</f>
@@ -2877,41 +3059,37 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:14" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" s="12" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="105">
-        <v>1</v>
-      </c>
-      <c r="C31" s="205" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
-      <c r="H31" s="207"/>
+        <v>34</v>
+      </c>
+      <c r="B31" s="166"/>
+      <c r="C31" s="134" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="136"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:14" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" s="12" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="105">
-        <v>1</v>
-      </c>
-      <c r="C32" s="205" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="206"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="206"/>
-      <c r="H32" s="207"/>
+        <v>35</v>
+      </c>
+      <c r="B32" s="166"/>
+      <c r="C32" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="136"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -2937,14 +3115,14 @@
     </row>
     <row r="34" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="20">
+        <v>28</v>
+      </c>
+      <c r="B34" s="20" t="e">
         <f>B31/B32</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2968,49 +3146,52 @@
       <c r="M35" s="17"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" s="12" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="143">
+        <v>75</v>
+      </c>
+      <c r="B36" s="167">
         <v>1</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="192" t="s">
+      <c r="D36" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="215"/>
-      <c r="F36" s="192" t="s">
+      <c r="E36" s="141"/>
+      <c r="F36" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="193"/>
+      <c r="G36" s="133"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="12" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="144">
+        <v>42</v>
+      </c>
+      <c r="B37" s="168">
         <v>1</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="86" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>63</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="G37" s="169" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="170" t="s">
+        <v>76</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -3018,51 +3199,56 @@
       <c r="M37" s="17"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" s="12" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A38" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="144">
+        <v>43</v>
+      </c>
+      <c r="B38" s="168">
         <v>1</v>
       </c>
       <c r="C38" s="27">
         <v>1</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="114" t="str">
+      <c r="D38" s="171"/>
+      <c r="E38" s="88" t="str">
         <f>IF(ISBLANK(D38),"-",$D$48/$D$45*D38)</f>
         <v>-</v>
       </c>
-      <c r="F38" s="145"/>
-      <c r="G38" s="117" t="str">
+      <c r="F38" s="171"/>
+      <c r="G38" s="91" t="str">
         <f>IF(ISBLANK(F38),"-",$D$48/$F$45*F38)</f>
         <v>-</v>
       </c>
+      <c r="I38" s="172"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" s="12" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A39" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="144">
+        <v>44</v>
+      </c>
+      <c r="B39" s="168">
         <v>1</v>
       </c>
       <c r="C39" s="23">
         <v>2</v>
       </c>
-      <c r="D39" s="146"/>
-      <c r="E39" s="115" t="str">
+      <c r="D39" s="173"/>
+      <c r="E39" s="89" t="str">
         <f>IF(ISBLANK(D39),"-",$D$48/$D$45*D39)</f>
         <v>-</v>
       </c>
-      <c r="F39" s="146"/>
-      <c r="G39" s="118" t="str">
+      <c r="F39" s="173"/>
+      <c r="G39" s="92" t="str">
         <f>IF(ISBLANK(F39),"-",$D$48/$F$45*F39)</f>
         <v>-</v>
+      </c>
+      <c r="I39" s="174" t="e">
+        <f>ABS((F43/D43*D42)-F42)/D42</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -3070,69 +3256,71 @@
       <c r="M39" s="17"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" ht="21.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A40" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="144">
+        <v>45</v>
+      </c>
+      <c r="B40" s="168">
         <v>1</v>
       </c>
       <c r="C40" s="23">
         <v>3</v>
       </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="115" t="str">
+      <c r="D40" s="173"/>
+      <c r="E40" s="89" t="str">
         <f>IF(ISBLANK(D40),"-",$D$48/$D$45*D40)</f>
         <v>-</v>
       </c>
-      <c r="F40" s="146"/>
-      <c r="G40" s="118" t="str">
+      <c r="F40" s="173"/>
+      <c r="G40" s="92" t="str">
         <f>IF(ISBLANK(F40),"-",$D$48/$F$45*F40)</f>
         <v>-</v>
       </c>
+      <c r="I40" s="174"/>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="29"/>
     </row>
-    <row r="41" spans="1:14" ht="21.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="144">
+        <v>46</v>
+      </c>
+      <c r="B41" s="168">
         <v>1</v>
       </c>
       <c r="C41" s="30">
         <v>4</v>
       </c>
-      <c r="D41" s="147"/>
-      <c r="E41" s="116" t="str">
+      <c r="D41" s="175"/>
+      <c r="E41" s="90" t="str">
         <f>IF(ISBLANK(D41),"-",$D$48/$D$45*D41)</f>
         <v>-</v>
       </c>
-      <c r="F41" s="147"/>
-      <c r="G41" s="120" t="str">
+      <c r="F41" s="175"/>
+      <c r="G41" s="93" t="str">
         <f>IF(ISBLANK(F41),"-",$D$48/$F$45*F41)</f>
         <v>-</v>
       </c>
+      <c r="I41" s="176"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="29"/>
     </row>
-    <row r="42" spans="1:14" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="144">
+        <v>47</v>
+      </c>
+      <c r="B42" s="168">
         <v>1</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="164" t="e">
+      <c r="D42" s="33" t="e">
         <f>AVERAGE(D38:D41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="60" t="e">
+      <c r="E42" s="55" t="e">
         <f>AVERAGE(E38:E41)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3144,156 +3332,158 @@
         <f>AVERAGE(G38:G41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="138"/>
-    </row>
-    <row r="43" spans="1:14" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="H42" s="107"/>
+    </row>
+    <row r="43" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A43" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="104">
+        <v>48</v>
+      </c>
+      <c r="B43" s="168">
         <v>1</v>
       </c>
-      <c r="C43" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="166"/>
+      <c r="C43" s="177" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="178"/>
       <c r="E43" s="29"/>
-      <c r="F43" s="148"/>
-      <c r="H43" s="138"/>
-    </row>
-    <row r="44" spans="1:14" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="F43" s="178"/>
+      <c r="H43" s="107"/>
+    </row>
+    <row r="44" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A44" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="104">
+        <v>49</v>
+      </c>
+      <c r="B44" s="168">
         <v>1</v>
       </c>
-      <c r="C44" s="167" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="168">
+      <c r="C44" s="179" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="35" t="e">
         <f>D43*$B$34</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E44" s="36"/>
-      <c r="F44" s="35">
+      <c r="F44" s="35" t="e">
         <f>F43*$B$34</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="107"/>
     </row>
     <row r="45" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="163">
+        <v>36</v>
+      </c>
+      <c r="B45" s="180">
         <f>(B44/B43)*(B42/B41)*(B40/B39)*(B38/B37)*B36</f>
         <v>1</v>
       </c>
-      <c r="C45" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="169">
+      <c r="C45" s="179" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="37" t="e">
         <f>D44*$B$30/100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E45" s="38"/>
-      <c r="F45" s="37">
+      <c r="F45" s="37" t="e">
         <f>F44*$B$30/100</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="107"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="194" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="195"/>
-      <c r="C46" s="167" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="168">
+      <c r="A46" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="146"/>
+      <c r="C46" s="179" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="181" t="e">
         <f>D45/$B$45</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="182"/>
+      <c r="F46" s="183" t="e">
         <f>F45/$B$45</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="138"/>
-    </row>
-    <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="196"/>
-      <c r="B47" s="197"/>
-      <c r="C47" s="167" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="170">
-        <v>0.5</v>
-      </c>
-      <c r="F47" s="41"/>
-      <c r="H47" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="107"/>
+    </row>
+    <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="144"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="185">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="186"/>
+      <c r="F47" s="182"/>
+      <c r="H47" s="107"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C48" s="167" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="168">
+      <c r="C48" s="187" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="37">
         <f>D47*$B$45</f>
-        <v>0.5</v>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="H48" s="138"/>
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="H48" s="107"/>
     </row>
     <row r="49" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="171" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="172">
+      <c r="C49" s="188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="189" t="e">
         <f>D48/B34</f>
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="45"/>
-      <c r="H49" s="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="H49" s="107"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C50" s="173" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="174" t="e">
+      <c r="C50" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="190" t="e">
         <f>AVERAGE(E38:E41,G38:G41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="45"/>
-      <c r="H50" s="138"/>
+      <c r="F50" s="43"/>
+      <c r="H50" s="107"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C51" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="46" t="e">
+      <c r="C51" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="44" t="e">
         <f>STDEV(E38:E41,G38:G41)/D50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="43"/>
+      <c r="H51" s="107"/>
     </row>
     <row r="52" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="47">
+      <c r="D52" s="191">
         <f>COUNT(E38:E41,G38:G41)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="45"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="48" t="s">
-        <v>67</v>
+      <c r="B54" s="45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -3305,11 +3495,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="103"/>
+        <v>82</v>
+      </c>
+      <c r="B56" s="192"/>
       <c r="C56" s="2">
         <f>B20</f>
         <v>0</v>
@@ -3318,1879 +3508,1307 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="142" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B57" s="111"/>
       <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" s="12" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="143">
+        <v>84</v>
+      </c>
+      <c r="B59" s="167">
         <v>1</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="49" t="s">
+      <c r="D59" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="1:12" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A60" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="168">
+        <v>1</v>
+      </c>
+      <c r="C60" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L59" s="13"/>
-    </row>
-    <row r="60" spans="1:12" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
+      <c r="D60" s="193"/>
+      <c r="E60" s="48">
+        <v>1</v>
+      </c>
+      <c r="F60" s="194"/>
+      <c r="G60" s="80" t="str">
+        <f>IF(ISBLANK(F60),"-",(F60/$D$50*$D$47*$B$68)*($B$57/$D$60))</f>
+        <v>-</v>
+      </c>
+      <c r="H60" s="82" t="str">
+        <f>IF(ISBLANK(F60),"-",G60/$B$56)</f>
+        <v>-</v>
+      </c>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="1:12" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="168">
+        <v>1</v>
+      </c>
+      <c r="C61" s="138"/>
+      <c r="D61" s="195"/>
+      <c r="E61" s="49">
+        <v>2</v>
+      </c>
+      <c r="F61" s="173"/>
+      <c r="G61" s="81" t="str">
+        <f t="shared" ref="G61:G63" si="0">IF(ISBLANK(F61),"-",(F61/$D$50*$D$47*$B$68)*($B$57/$D$60))</f>
+        <v>-</v>
+      </c>
+      <c r="H61" s="83" t="str">
+        <f t="shared" ref="H61:H71" si="1">IF(ISBLANK(F61),"-",G61/$B$56)</f>
+        <v>-</v>
+      </c>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="1:12" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A62" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="168">
+        <v>1</v>
+      </c>
+      <c r="C62" s="138"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="49">
+        <v>3</v>
+      </c>
+      <c r="F62" s="196"/>
+      <c r="G62" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="H62" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="168">
+        <v>1</v>
+      </c>
+      <c r="C63" s="139"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="50">
+        <v>4</v>
+      </c>
+      <c r="F63" s="198"/>
+      <c r="G63" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="H63" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A64" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="168">
+        <v>1</v>
+      </c>
+      <c r="C64" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="193"/>
+      <c r="E64" s="48">
+        <v>1</v>
+      </c>
+      <c r="F64" s="194"/>
+      <c r="G64" s="103" t="str">
+        <f>IF(ISBLANK(F64),"-",(F64/$D$50*$D$47*$B$68)*($B$57/$D$64))</f>
+        <v>-</v>
+      </c>
+      <c r="H64" s="100" t="str">
+        <f>IF(ISBLANK(F64),"-",G64/$B$56)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="144">
+      <c r="B65" s="168">
         <v>1</v>
       </c>
-      <c r="C60" s="208" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="212"/>
-      <c r="E60" s="51">
+      <c r="C65" s="138"/>
+      <c r="D65" s="195"/>
+      <c r="E65" s="49">
+        <v>2</v>
+      </c>
+      <c r="F65" s="173"/>
+      <c r="G65" s="104" t="str">
+        <f t="shared" ref="G65:G67" si="2">IF(ISBLANK(F65),"-",(F65/$D$50*$D$47*$B$68)*($B$57/$D$64))</f>
+        <v>-</v>
+      </c>
+      <c r="H65" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="168">
         <v>1</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="90" t="str">
-        <f>IF(ISBLANK(F60),"-",(F60/$D$50*$D$47*$B$68)*($B$57/$D$60))</f>
-        <v>-</v>
-      </c>
-      <c r="H60" s="92" t="str">
-        <f>IF(ISBLANK(F60),"-",G60/$B$56)</f>
-        <v>-</v>
-      </c>
-      <c r="L60" s="13"/>
-    </row>
-    <row r="61" spans="1:12" s="12" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="144">
+      <c r="C66" s="138"/>
+      <c r="D66" s="195"/>
+      <c r="E66" s="49">
+        <v>3</v>
+      </c>
+      <c r="F66" s="173"/>
+      <c r="G66" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="H66" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="168">
         <v>1</v>
       </c>
-      <c r="C61" s="209"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="52">
-        <v>2</v>
-      </c>
-      <c r="F61" s="146"/>
-      <c r="G61" s="91" t="str">
-        <f>IF(ISBLANK(F61),"-",(F61/$D$50*$D$47*$B$68)*($B$57/$D$60))</f>
-        <v>-</v>
-      </c>
-      <c r="H61" s="93" t="str">
-        <f t="shared" ref="H61:H71" si="0">IF(ISBLANK(F61),"-",G61/$B$56)</f>
-        <v>-</v>
-      </c>
-      <c r="L61" s="13"/>
-    </row>
-    <row r="62" spans="1:12" s="12" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="144">
-        <v>1</v>
-      </c>
-      <c r="C62" s="209"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="52">
-        <v>3</v>
-      </c>
-      <c r="F62" s="146"/>
-      <c r="G62" s="91" t="str">
-        <f>IF(ISBLANK(F62),"-",(F62/$D$50*$D$47*$B$68)*($B$57/$D$60))</f>
-        <v>-</v>
-      </c>
-      <c r="H62" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L62" s="13"/>
-    </row>
-    <row r="63" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="144">
-        <v>1</v>
-      </c>
-      <c r="C63" s="210"/>
-      <c r="D63" s="214"/>
-      <c r="E63" s="53">
+      <c r="C67" s="139"/>
+      <c r="D67" s="197"/>
+      <c r="E67" s="50">
         <v>4</v>
       </c>
-      <c r="F63" s="151"/>
-      <c r="G63" s="91" t="str">
-        <f>IF(ISBLANK(F63),"-",(F63/$D$50*$D$47*$B$68)*($B$57/$D$60))</f>
-        <v>-</v>
-      </c>
-      <c r="H63" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="144">
-        <v>1</v>
-      </c>
-      <c r="C64" s="208" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="212"/>
-      <c r="E64" s="51">
-        <v>1</v>
-      </c>
-      <c r="F64" s="150"/>
-      <c r="G64" s="134" t="str">
-        <f>IF(ISBLANK(F64),"-",(F64/$D$50*$D$47*$B$68)*($B$57/$D$64))</f>
-        <v>-</v>
-      </c>
-      <c r="H64" s="131" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="144">
-        <v>1</v>
-      </c>
-      <c r="C65" s="209"/>
-      <c r="D65" s="213"/>
-      <c r="E65" s="52">
-        <v>2</v>
-      </c>
-      <c r="F65" s="146"/>
-      <c r="G65" s="135" t="str">
-        <f>IF(ISBLANK(F65),"-",(F65/$D$50*$D$47*$B$68)*($B$57/$D$64))</f>
-        <v>-</v>
-      </c>
-      <c r="H65" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="144">
-        <v>1</v>
-      </c>
-      <c r="C66" s="209"/>
-      <c r="D66" s="213"/>
-      <c r="E66" s="52">
-        <v>3</v>
-      </c>
-      <c r="F66" s="146"/>
-      <c r="G66" s="135" t="str">
-        <f>IF(ISBLANK(F66),"-",(F66/$D$50*$D$47*$B$68)*($B$57/$D$64))</f>
-        <v>-</v>
-      </c>
-      <c r="H66" s="132" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="144">
-        <v>1</v>
-      </c>
-      <c r="C67" s="210"/>
-      <c r="D67" s="214"/>
-      <c r="E67" s="53">
-        <v>4</v>
-      </c>
-      <c r="F67" s="151"/>
-      <c r="G67" s="136" t="str">
-        <f>IF(ISBLANK(F67),"-",(F67/$D$50*$D$47*$B$68)*($B$57/$D$64))</f>
-        <v>-</v>
-      </c>
-      <c r="H67" s="133" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="198"/>
+      <c r="G67" s="105" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="H67" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A68" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="152">
+        <v>24</v>
+      </c>
+      <c r="B68" s="199">
         <f>(B67/B66)*(B65/B64)*(B63/B62)*(B61/B60)*B59</f>
         <v>1</v>
       </c>
-      <c r="C68" s="208" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="212"/>
-      <c r="E68" s="51">
+      <c r="C68" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="193"/>
+      <c r="E68" s="48">
         <v>1</v>
       </c>
-      <c r="F68" s="150"/>
-      <c r="G68" s="134" t="str">
+      <c r="F68" s="194"/>
+      <c r="G68" s="103" t="str">
         <f>IF(ISBLANK(F68),"-",(F68/$D$50*$D$47*$B$68)*($B$57/$D$68))</f>
         <v>-</v>
       </c>
-      <c r="H68" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="175" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="176" t="e">
+      <c r="H68" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="200" t="e">
         <f>(D47*B68)/B56*B57</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="213"/>
-      <c r="E69" s="52">
+      <c r="C69" s="138"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="49">
         <v>2</v>
       </c>
-      <c r="F69" s="146"/>
-      <c r="G69" s="135" t="str">
-        <f>IF(ISBLANK(F69),"-",(F69/$D$50*$D$47*$B$68)*($B$57/$D$68))</f>
-        <v>-</v>
-      </c>
-      <c r="H69" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="201"/>
-      <c r="C70" s="209"/>
-      <c r="D70" s="213"/>
-      <c r="E70" s="52">
+      <c r="F69" s="173"/>
+      <c r="G69" s="104" t="str">
+        <f t="shared" ref="G69:G71" si="3">IF(ISBLANK(F69),"-",(F69/$D$50*$D$47*$B$68)*($B$57/$D$68))</f>
+        <v>-</v>
+      </c>
+      <c r="H69" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A70" s="148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="149"/>
+      <c r="C70" s="138"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="49">
         <v>3</v>
       </c>
-      <c r="F70" s="146"/>
-      <c r="G70" s="135" t="str">
-        <f>IF(ISBLANK(F70),"-",(F70/$D$50*$D$47*$B$68)*($B$57/$D$68))</f>
-        <v>-</v>
-      </c>
-      <c r="H70" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="202"/>
-      <c r="B71" s="203"/>
-      <c r="C71" s="211"/>
-      <c r="D71" s="214"/>
-      <c r="E71" s="53">
+      <c r="F70" s="173"/>
+      <c r="G70" s="104" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="H70" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="150"/>
+      <c r="B71" s="151"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="50">
         <v>4</v>
       </c>
-      <c r="F71" s="151"/>
-      <c r="G71" s="136" t="str">
-        <f>IF(ISBLANK(F71),"-",(F71/$D$50*$D$47*$B$68)*($B$57/$D$68))</f>
-        <v>-</v>
-      </c>
-      <c r="H71" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="43" t="s">
+      <c r="F71" s="198"/>
+      <c r="G71" s="105" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="H71" s="84" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="95" t="e">
+      <c r="H72" s="201" t="e">
         <f>AVERAGE(H60:H71)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H73" s="57" t="e">
+    <row r="73" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="202" t="e">
         <f>STDEV(H60:H71)/H72</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="42" t="s">
+    <row r="74" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="59">
+      <c r="H74" s="203">
         <f>COUNT(H60:H71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="162"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="78"/>
-      <c r="H76" s="162"/>
+    <row r="76" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="204" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="205">
+        <f>B20</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="205"/>
+      <c r="E76" s="206" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" s="206"/>
+      <c r="G76" s="207" t="e">
+        <f>H72</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="112"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="162"/>
+      <c r="A77" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A79" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="103">
-        <f>B26</f>
+      <c r="B79" s="208"/>
+      <c r="C79" s="208"/>
+    </row>
+    <row r="80" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="208"/>
+      <c r="C80" s="208"/>
+    </row>
+    <row r="81" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="209"/>
+    </row>
+    <row r="82" spans="1:12" s="12" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="165">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
+      <c r="C82" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="130"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="130"/>
+      <c r="G82" s="131"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+    </row>
+    <row r="83" spans="1:12" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="103">
-        <f>B27</f>
+      <c r="B83" s="9">
+        <f>B81-B82</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="103">
-        <f>B28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" s="103">
-        <f>B29</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="188" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="189"/>
-      <c r="E83" s="189"/>
-      <c r="F83" s="189"/>
-      <c r="G83" s="190"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="15"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" s="12" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" s="9">
-        <f>B82-B83</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="B84" s="166"/>
+      <c r="C84" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="135"/>
+      <c r="E84" s="135"/>
+      <c r="F84" s="135"/>
+      <c r="G84" s="135"/>
+      <c r="H84" s="136"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-    </row>
-    <row r="86" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B86" s="143">
+    <row r="85" spans="1:12" s="12" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="166"/>
+      <c r="C85" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="135"/>
+      <c r="E85" s="135"/>
+      <c r="F85" s="135"/>
+      <c r="G85" s="135"/>
+      <c r="H85" s="136"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+    </row>
+    <row r="86" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+    </row>
+    <row r="87" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="20" t="e">
+        <f>B84/B85</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+    </row>
+    <row r="88" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="167">
         <v>1</v>
       </c>
-      <c r="D86" s="88" t="s">
+      <c r="D89" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="89"/>
-      <c r="F86" s="192" t="s">
+      <c r="E89" s="127"/>
+      <c r="F89" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="193"/>
-    </row>
-    <row r="87" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="22" t="s">
+      <c r="G89" s="133"/>
+    </row>
+    <row r="90" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="168">
+        <v>1</v>
+      </c>
+      <c r="C90" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I90" s="170" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A91" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="168">
+        <v>1</v>
+      </c>
+      <c r="C91" s="76">
+        <v>1</v>
+      </c>
+      <c r="D91" s="171"/>
+      <c r="E91" s="88" t="str">
+        <f>IF(ISBLANK(D91),"-",$D$101/$D$98*D91)</f>
+        <v>-</v>
+      </c>
+      <c r="F91" s="171"/>
+      <c r="G91" s="91" t="str">
+        <f>IF(ISBLANK(F91),"-",$D$101/$F$98*F91)</f>
+        <v>-</v>
+      </c>
+      <c r="I91" s="172"/>
+    </row>
+    <row r="92" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A92" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="168">
+        <v>1</v>
+      </c>
+      <c r="C92" s="52">
+        <v>2</v>
+      </c>
+      <c r="D92" s="173"/>
+      <c r="E92" s="89" t="str">
+        <f>IF(ISBLANK(D92),"-",$D$101/$D$98*D92)</f>
+        <v>-</v>
+      </c>
+      <c r="F92" s="173"/>
+      <c r="G92" s="92" t="str">
+        <f t="shared" ref="G92" si="4">IF(ISBLANK(F92),"-",$D$101/$F$98*F92)</f>
+        <v>-</v>
+      </c>
+      <c r="I92" s="174" t="e">
+        <f>ABS((F96/D96*D95)-F95)/D95</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A93" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="168">
+        <v>1</v>
+      </c>
+      <c r="C93" s="52">
+        <v>3</v>
+      </c>
+      <c r="D93" s="173"/>
+      <c r="E93" s="89" t="str">
+        <f>IF(ISBLANK(D93),"-",$D$101/$D$98*D93)</f>
+        <v>-</v>
+      </c>
+      <c r="F93" s="173"/>
+      <c r="G93" s="92" t="str">
+        <f>IF(ISBLANK(F93),"-",$D$101/$F$98*F93)</f>
+        <v>-</v>
+      </c>
+      <c r="I93" s="174"/>
+    </row>
+    <row r="94" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="168">
+        <v>1</v>
+      </c>
+      <c r="C94" s="79">
+        <v>4</v>
+      </c>
+      <c r="D94" s="175"/>
+      <c r="E94" s="90" t="str">
+        <f>IF(ISBLANK(D94),"-",$D$101/$D$98*D94)</f>
+        <v>-</v>
+      </c>
+      <c r="F94" s="210"/>
+      <c r="G94" s="93" t="str">
+        <f>IF(ISBLANK(F94),"-",$D$101/$F$98*F94)</f>
+        <v>-</v>
+      </c>
+      <c r="I94" s="176"/>
+    </row>
+    <row r="95" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B87" s="144">
+      <c r="B95" s="168">
         <v>1</v>
       </c>
-      <c r="C87" s="85" t="s">
+      <c r="C95" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="121" t="e">
+        <f>AVERAGE(D91:D94)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E95" s="55" t="e">
+        <f>AVERAGE(E91:E94)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F95" s="77" t="e">
+        <f>AVERAGE(F91:F94)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G95" s="211" t="e">
+        <f>AVERAGE(G91:G94)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A96" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="164">
+        <v>1</v>
+      </c>
+      <c r="C96" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" s="86" t="s">
+      <c r="D96" s="212"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="164">
+        <v>1</v>
+      </c>
+      <c r="C97" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="115" t="e">
+        <f>D96*$B$87</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="35" t="e">
+        <f>F96*$B$87</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="213">
+        <f>(B97/B96)*(B95/B94)*(B93/B92)*(B91/B90)*B89</f>
+        <v>1</v>
+      </c>
+      <c r="C98" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="116" t="e">
+        <f>D97*$B$83/100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E98" s="38"/>
+      <c r="F98" s="37" t="e">
+        <f>F97*$B$83/100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="143"/>
+      <c r="C99" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="214" t="e">
+        <f>D98/$B$98</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E99" s="38"/>
+      <c r="F99" s="183" t="e">
+        <f>F98/$B$98</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G99" s="106"/>
+      <c r="H99" s="107"/>
+    </row>
+    <row r="100" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="144"/>
+      <c r="B100" s="145"/>
+      <c r="C100" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="215">
+        <f>$B$56/$B$116</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="40"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="107"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C101" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="115">
+        <f>D100*$B$98</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="40"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="107"/>
+    </row>
+    <row r="102" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C102" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="F87" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G87" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88" s="144">
+      <c r="D102" s="122" t="e">
+        <f>D101/B34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F102" s="43"/>
+      <c r="G102" s="106"/>
+      <c r="H102" s="107"/>
+      <c r="J102" s="56"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C103" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="119" t="e">
+        <f>AVERAGE(E91:E94,G91:G94)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F103" s="43"/>
+      <c r="G103" s="109"/>
+      <c r="H103" s="107"/>
+      <c r="J103" s="58"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C104" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="57" t="e">
+        <f>STDEV(E91:E94,G91:G94)/D103</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="G104" s="106"/>
+      <c r="H104" s="107"/>
+      <c r="J104" s="58"/>
+    </row>
+    <row r="105" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C105" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="59">
+        <f>COUNT(E91:E94,G91:G94)</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="43"/>
+      <c r="G105" s="106"/>
+      <c r="H105" s="107"/>
+      <c r="J105" s="58"/>
+    </row>
+    <row r="106" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A107" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="167">
         <v>1</v>
       </c>
-      <c r="C88" s="83">
+      <c r="C107" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="F107" s="62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A108" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108" s="168">
         <v>1</v>
       </c>
-      <c r="D88" s="145"/>
-      <c r="E88" s="114" t="str">
-        <f>IF(ISBLANK(D88),"-",$D$98/$D$95*D88)</f>
-        <v>-</v>
-      </c>
-      <c r="F88" s="145"/>
-      <c r="G88" s="117" t="str">
-        <f>IF(ISBLANK(F88),"-",$D$98/$F$95*F88)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="144">
+      <c r="C108" s="28">
         <v>1</v>
       </c>
-      <c r="C89" s="55">
+      <c r="D108" s="216"/>
+      <c r="E108" s="63" t="str">
+        <f t="shared" ref="E108:E113" si="5">IF(ISBLANK(D108),"-",D108/$D$103*$D$100*$B$116)</f>
+        <v>-</v>
+      </c>
+      <c r="F108" s="64" t="str">
+        <f>IF(ISBLANK(D108), "-", E108/$B$56)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="168">
+        <v>1</v>
+      </c>
+      <c r="C109" s="28">
         <v>2</v>
       </c>
-      <c r="D89" s="146"/>
-      <c r="E89" s="115" t="str">
-        <f>IF(ISBLANK(D89),"-",$D$98/$D$95*D89)</f>
-        <v>-</v>
-      </c>
-      <c r="F89" s="146"/>
-      <c r="G89" s="118" t="str">
-        <f>IF(ISBLANK(F89),"-",$D$98/$F$95*F89)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" s="144">
+      <c r="D109" s="216"/>
+      <c r="E109" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F109" s="85" t="str">
+        <f t="shared" ref="F109:F113" si="6">IF(ISBLANK(D109), "-", E109/$B$56)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A110" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="168">
         <v>1</v>
       </c>
-      <c r="C90" s="55">
+      <c r="C110" s="28">
         <v>3</v>
       </c>
-      <c r="D90" s="146"/>
-      <c r="E90" s="115" t="str">
-        <f>IF(ISBLANK(D90),"-",$D$98/$D$95*D90)</f>
-        <v>-</v>
-      </c>
-      <c r="F90" s="146"/>
-      <c r="G90" s="118" t="str">
-        <f>IF(ISBLANK(F90),"-",$D$98/$F$95*F90)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" s="144">
+      <c r="D110" s="216"/>
+      <c r="E110" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F110" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A111" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="168">
         <v>1</v>
       </c>
-      <c r="C91" s="87">
+      <c r="C111" s="28">
         <v>4</v>
       </c>
-      <c r="D91" s="147"/>
-      <c r="E91" s="116" t="str">
-        <f>IF(ISBLANK(D91),"-",$D$98/$D$95*D91)</f>
-        <v>-</v>
-      </c>
-      <c r="F91" s="153"/>
-      <c r="G91" s="120" t="str">
-        <f>IF(ISBLANK(F91),"-",$D$98/$D$95*F91)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92" s="144">
+      <c r="D111" s="216"/>
+      <c r="E111" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F111" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A112" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="168">
         <v>1</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="C112" s="28">
+        <v>5</v>
+      </c>
+      <c r="D112" s="216"/>
+      <c r="E112" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F112" s="85" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A113" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" s="168">
+        <v>1</v>
+      </c>
+      <c r="C113" s="31">
+        <v>6</v>
+      </c>
+      <c r="D113" s="217"/>
+      <c r="E113" s="66" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="F113" s="86" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A114" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" s="168">
+        <v>1</v>
+      </c>
+      <c r="C114" s="28"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="67"/>
+    </row>
+    <row r="115" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A115" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" s="168">
+        <v>1</v>
+      </c>
+      <c r="C115" s="28"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="177" t="e">
-        <f>AVERAGE(D88:D91)</f>
+      <c r="F115" s="218" t="e">
+        <f>AVERAGE(F108:F113)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E92" s="60" t="e">
-        <f>AVERAGE(E88:E91)</f>
+    </row>
+    <row r="116" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="180">
+        <f>(B115/B114)*(B113/B112)*(B111/B110)*(B109/B108)*B107</f>
+        <v>1</v>
+      </c>
+      <c r="C116" s="70"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" s="219" t="e">
+        <f>STDEV(F108:F113)/F115</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F92" s="84" t="e">
-        <f>AVERAGE(F88:F91)</f>
+      <c r="I116" s="54"/>
+    </row>
+    <row r="117" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="146"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" s="220">
+        <f>COUNT(F108:F113)</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="54"/>
+      <c r="J117" s="58"/>
+    </row>
+    <row r="118" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="144"/>
+      <c r="B118" s="147"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+    </row>
+    <row r="120" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A120" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B120" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" s="205">
+        <f>B20</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="205"/>
+      <c r="E120" s="206" t="s">
+        <v>93</v>
+      </c>
+      <c r="F120" s="206"/>
+      <c r="G120" s="207" t="e">
+        <f>F115</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G92" s="121" t="e">
-        <f>AVERAGE(G88:G91)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93" s="104">
-        <v>1</v>
-      </c>
-      <c r="C93" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="166"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="148"/>
-    </row>
-    <row r="94" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" s="104">
-        <v>1</v>
-      </c>
-      <c r="C94" s="167" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94" s="168">
-        <f>D93*$B$34</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="36"/>
-      <c r="F94" s="35">
-        <f>F93*$B$34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95" s="163">
-        <f>(B94/B93)*(B92/B91)*(B90/B89)*(B88/B87)*B86</f>
-        <v>1</v>
-      </c>
-      <c r="C95" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="169">
-        <f>D94*$B$84/100</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="38"/>
-      <c r="F95" s="37">
-        <f>F94*$B$84/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="194" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="195"/>
-      <c r="C96" s="167" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="168">
-        <f>D95/$B$95</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="38"/>
-      <c r="F96" s="39">
-        <f>F95/$B$95</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="137"/>
-      <c r="H96" s="138"/>
-    </row>
-    <row r="97" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="196"/>
-      <c r="B97" s="197"/>
-      <c r="C97" s="167" t="s">
-        <v>70</v>
-      </c>
-      <c r="D97" s="178">
-        <f>$B$56/$B$113</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="41"/>
-      <c r="G97" s="139"/>
-      <c r="H97" s="138"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="167" t="s">
-        <v>73</v>
-      </c>
-      <c r="D98" s="168">
-        <f>D97*$B$95</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="41"/>
-      <c r="G98" s="137"/>
-      <c r="H98" s="138"/>
-    </row>
-    <row r="99" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C99" s="171" t="s">
-        <v>74</v>
-      </c>
-      <c r="D99" s="179">
-        <f>D98/B34</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="45"/>
-      <c r="G99" s="137"/>
-      <c r="H99" s="138"/>
-      <c r="J99" s="61"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C100" s="173" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="174" t="e">
-        <f>AVERAGE(E88:E91,G88:G91)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="45"/>
-      <c r="G100" s="140"/>
-      <c r="H100" s="138"/>
-      <c r="J100" s="63"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C101" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="62" t="e">
-        <f>STDEV(E88:E91,G88:G91)/D100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F101" s="45"/>
-      <c r="G101" s="137"/>
-      <c r="H101" s="138"/>
-      <c r="J101" s="63"/>
-    </row>
-    <row r="102" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C102" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="64">
-        <f>COUNT(E88:E91,G88:G91)</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="45"/>
-      <c r="G102" s="137"/>
-      <c r="H102" s="138"/>
-      <c r="J102" s="63"/>
-    </row>
-    <row r="103" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="143">
-        <v>1</v>
-      </c>
-      <c r="C104" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="D104" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E104" s="187" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" s="67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B105" s="144">
-        <v>1</v>
-      </c>
-      <c r="C105" s="28">
-        <v>1</v>
-      </c>
-      <c r="D105" s="154"/>
-      <c r="E105" s="68" t="str">
-        <f t="shared" ref="E105:E110" si="1">IF(ISBLANK(D105),"-",D105/$D$100*$D$97*$B$113)</f>
-        <v>-</v>
-      </c>
-      <c r="F105" s="69" t="str">
-        <f t="shared" ref="F105:F110" si="2">IF(ISBLANK(D105), "-", E105/$B$56)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106" s="144">
-        <v>1</v>
-      </c>
-      <c r="C106" s="28">
-        <v>2</v>
-      </c>
-      <c r="D106" s="154"/>
-      <c r="E106" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F106" s="96" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107" s="144">
-        <v>1</v>
-      </c>
-      <c r="C107" s="28">
-        <v>3</v>
-      </c>
-      <c r="D107" s="154"/>
-      <c r="E107" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F107" s="96" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="22" t="s">
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+    </row>
+    <row r="121" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="125"/>
+      <c r="B121" s="125"/>
+      <c r="C121" s="87"/>
+      <c r="D121" s="87"/>
+      <c r="E121" s="87"/>
+      <c r="F121" s="87"/>
+      <c r="G121" s="87"/>
+      <c r="H121" s="87"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B122" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="B108" s="144">
-        <v>1</v>
-      </c>
-      <c r="C108" s="28">
-        <v>4</v>
-      </c>
-      <c r="D108" s="154"/>
-      <c r="E108" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F108" s="96" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
+      <c r="C122" s="128"/>
+      <c r="E122" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="F122" s="98"/>
+      <c r="G122" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="B109" s="144">
-        <v>1</v>
-      </c>
-      <c r="C109" s="28">
-        <v>5</v>
-      </c>
-      <c r="D109" s="154"/>
-      <c r="E109" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F109" s="96" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B110" s="144">
-        <v>1</v>
-      </c>
-      <c r="C110" s="31">
-        <v>6</v>
-      </c>
-      <c r="D110" s="155"/>
-      <c r="E110" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F110" s="97" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
+      <c r="H122" s="128"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="94"/>
+      <c r="C123" s="94"/>
+      <c r="E123" s="94"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B111" s="144">
-        <v>1</v>
-      </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="72"/>
-    </row>
-    <row r="112" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="144">
-        <v>1</v>
-      </c>
-      <c r="C112" s="28"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="75" t="e">
-        <f>AVERAGE(F105:F110)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B113" s="149">
-        <f>(B112/B111)*(B110/B109)*(B108/B107)*(B106/B105)*B104</f>
-        <v>1</v>
-      </c>
-      <c r="C113" s="76"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" s="79" t="e">
-        <f>STDEV(F105:F110)/F112</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I113" s="58"/>
-    </row>
-    <row r="114" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="194" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" s="198"/>
-      <c r="C114" s="80"/>
-      <c r="D114" s="81"/>
-      <c r="E114" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" s="64">
-        <f>COUNT(F105:F110)</f>
-        <v>0</v>
-      </c>
-      <c r="I114" s="58"/>
-      <c r="J114" s="63"/>
-    </row>
-    <row r="115" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="196"/>
-      <c r="B115" s="199"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="55"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="19"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="55"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="103">
-        <f>B26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="103">
-        <f>B27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="103">
-        <f>B28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B122" s="103">
-        <f>B29</f>
-        <v>0</v>
-      </c>
-      <c r="C122" s="188" t="s">
-        <v>35</v>
-      </c>
-      <c r="D122" s="189"/>
-      <c r="E122" s="189"/>
-      <c r="F122" s="189"/>
-      <c r="G122" s="190"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
-    </row>
-    <row r="123" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B123" s="9">
-        <f>B121-B122</f>
-        <v>0</v>
-      </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="15"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-    </row>
-    <row r="125" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-    </row>
-    <row r="126" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B126" s="106">
-        <v>1</v>
-      </c>
-      <c r="D126" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="130"/>
-      <c r="F126" s="192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="193"/>
-    </row>
-    <row r="127" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A127" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B127" s="107">
-        <v>1</v>
-      </c>
-      <c r="C127" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E127" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G127" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B128" s="107">
-        <v>1</v>
-      </c>
-      <c r="C128" s="83">
-        <v>1</v>
-      </c>
-      <c r="D128" s="108"/>
-      <c r="E128" s="114" t="str">
-        <f>IF(ISBLANK(D128),"-",$D$98/$D$95*D128)</f>
-        <v>-</v>
-      </c>
-      <c r="F128" s="108"/>
-      <c r="G128" s="117" t="str">
-        <f>IF(ISBLANK(F128),"-",$D$98/$F$95*F128)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A129" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B129" s="107">
-        <v>1</v>
-      </c>
-      <c r="C129" s="55">
-        <v>2</v>
-      </c>
-      <c r="D129" s="109"/>
-      <c r="E129" s="115" t="str">
-        <f>IF(ISBLANK(D129),"-",$D$98/$D$95*D129)</f>
-        <v>-</v>
-      </c>
-      <c r="F129" s="109"/>
-      <c r="G129" s="118" t="str">
-        <f>IF(ISBLANK(F129),"-",$D$98/$F$95*F129)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B130" s="107">
-        <v>1</v>
-      </c>
-      <c r="C130" s="55">
-        <v>3</v>
-      </c>
-      <c r="D130" s="109"/>
-      <c r="E130" s="115" t="str">
-        <f>IF(ISBLANK(D130),"-",$D$98/$D$95*D130)</f>
-        <v>-</v>
-      </c>
-      <c r="F130" s="109"/>
-      <c r="G130" s="118" t="str">
-        <f>IF(ISBLANK(F130),"-",$D$98/$F$95*F130)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A131" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B131" s="107">
-        <v>1</v>
-      </c>
-      <c r="C131" s="87">
-        <v>4</v>
-      </c>
-      <c r="D131" s="110"/>
-      <c r="E131" s="116" t="str">
-        <f>IF(ISBLANK(D131),"-",$D$98/$D$95*D131)</f>
-        <v>-</v>
-      </c>
-      <c r="F131" s="119"/>
-      <c r="G131" s="120" t="str">
-        <f>IF(ISBLANK(F131),"-",$D$98/$D$95*F131)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="22.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B132" s="107">
-        <v>1</v>
-      </c>
-      <c r="C132" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="177" t="e">
-        <f>AVERAGE(D128:D131)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E132" s="60" t="e">
-        <f>AVERAGE(E128:E131)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F132" s="84" t="e">
-        <f>AVERAGE(F128:F131)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G132" s="121" t="e">
-        <f>AVERAGE(G128:G131)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A133" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B133" s="180">
-        <v>1</v>
-      </c>
-      <c r="C133" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="181"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="111"/>
-    </row>
-    <row r="134" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A134" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B134" s="180">
-        <v>1</v>
-      </c>
-      <c r="C134" s="167" t="s">
-        <v>32</v>
-      </c>
-      <c r="D134" s="168">
-        <f>D133*$B$34</f>
-        <v>0</v>
-      </c>
-      <c r="E134" s="36"/>
-      <c r="F134" s="35">
-        <f>F133*$B$34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B135" s="180">
-        <f>(B134/B133)*(B132/B131)*(B130/B129)*(B128/B127)*B126</f>
-        <v>1</v>
-      </c>
-      <c r="C135" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" s="169">
-        <f>D134*$B$123/100</f>
-        <v>0</v>
-      </c>
-      <c r="E135" s="38"/>
-      <c r="F135" s="37">
-        <f>F134*$B$123/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="194" t="s">
-        <v>33</v>
-      </c>
-      <c r="B136" s="195"/>
-      <c r="C136" s="167" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="168">
-        <f>D135/$B$135</f>
-        <v>0</v>
-      </c>
-      <c r="E136" s="38"/>
-      <c r="F136" s="39">
-        <f>F135/$B$135</f>
-        <v>0</v>
-      </c>
-      <c r="G136" s="137"/>
-      <c r="H136" s="138"/>
-    </row>
-    <row r="137" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="196"/>
-      <c r="B137" s="197"/>
-      <c r="C137" s="167" t="s">
-        <v>70</v>
-      </c>
-      <c r="D137" s="178">
-        <f>$B$56/$B$153</f>
-        <v>0</v>
-      </c>
-      <c r="F137" s="41"/>
-      <c r="G137" s="139"/>
-      <c r="H137" s="138"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C138" s="167" t="s">
-        <v>73</v>
-      </c>
-      <c r="D138" s="168">
-        <f>D137*$B$135</f>
-        <v>0</v>
-      </c>
-      <c r="F138" s="41"/>
-      <c r="G138" s="137"/>
-      <c r="H138" s="138"/>
-    </row>
-    <row r="139" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C139" s="182" t="s">
-        <v>74</v>
-      </c>
-      <c r="D139" s="183">
-        <f>D138/B34</f>
-        <v>0</v>
-      </c>
-      <c r="F139" s="45"/>
-      <c r="G139" s="137"/>
-      <c r="H139" s="138"/>
-      <c r="J139" s="61"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C140" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" s="44" t="e">
-        <f>AVERAGE(E128:E131,G128:G131)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F140" s="45"/>
-      <c r="G140" s="140"/>
-      <c r="H140" s="138"/>
-      <c r="J140" s="63"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C141" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D141" s="62" t="e">
-        <f>STDEV(E128:E131,G128:G131)/D140</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F141" s="45"/>
-      <c r="G141" s="137"/>
-      <c r="H141" s="138"/>
-      <c r="J141" s="63"/>
-    </row>
-    <row r="142" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C142" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="64">
-        <f>COUNT(E128:E131,G128:G131)</f>
-        <v>0</v>
-      </c>
-      <c r="F142" s="45"/>
-      <c r="G142" s="137"/>
-      <c r="H142" s="138"/>
-      <c r="J142" s="63"/>
-    </row>
-    <row r="143" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B144" s="106">
-        <v>1</v>
-      </c>
-      <c r="C144" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="D144" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E144" s="187" t="s">
-        <v>71</v>
-      </c>
-      <c r="F144" s="67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B145" s="107">
-        <v>1</v>
-      </c>
-      <c r="C145" s="28">
-        <v>1</v>
-      </c>
-      <c r="D145" s="112"/>
-      <c r="E145" s="159" t="str">
-        <f t="shared" ref="E145:E150" si="3">IF(ISBLANK(D145),"-",D145/$D$140*$D$137*$B$153)</f>
-        <v>-</v>
-      </c>
-      <c r="F145" s="156" t="str">
-        <f t="shared" ref="F145:F150" si="4">IF(ISBLANK(D145), "-", E145/$B$56)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A146" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B146" s="107">
-        <v>1</v>
-      </c>
-      <c r="C146" s="28">
-        <v>2</v>
-      </c>
-      <c r="D146" s="112"/>
-      <c r="E146" s="160" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F146" s="157" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A147" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B147" s="107">
-        <v>1</v>
-      </c>
-      <c r="C147" s="28">
-        <v>3</v>
-      </c>
-      <c r="D147" s="112"/>
-      <c r="E147" s="160" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F147" s="157" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A148" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B148" s="107">
-        <v>1</v>
-      </c>
-      <c r="C148" s="28">
-        <v>4</v>
-      </c>
-      <c r="D148" s="112"/>
-      <c r="E148" s="160" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F148" s="157" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A149" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B149" s="107">
-        <v>1</v>
-      </c>
-      <c r="C149" s="28">
-        <v>5</v>
-      </c>
-      <c r="D149" s="112"/>
-      <c r="E149" s="160" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F149" s="157" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A150" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B150" s="107">
-        <v>1</v>
-      </c>
-      <c r="C150" s="31">
-        <v>6</v>
-      </c>
-      <c r="D150" s="113"/>
-      <c r="E150" s="161" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F150" s="158" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A151" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B151" s="107">
-        <v>1</v>
-      </c>
-      <c r="C151" s="28"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="58"/>
-      <c r="F151" s="72"/>
-    </row>
-    <row r="152" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
-      <c r="A152" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B152" s="107">
-        <v>1</v>
-      </c>
-      <c r="C152" s="28"/>
-      <c r="D152" s="73"/>
-      <c r="E152" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="75" t="e">
-        <f>AVERAGE(F145:F150)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153" s="107">
-        <f>(B152/B151)*(B150/B149)*(B148/B147)*(B146/B145)*B144</f>
-        <v>1</v>
-      </c>
-      <c r="C153" s="76"/>
-      <c r="D153" s="77"/>
-      <c r="E153" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="F153" s="79" t="e">
-        <f>STDEV(F145:F150)/F152</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I153" s="58"/>
-    </row>
-    <row r="154" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="194" t="s">
-        <v>33</v>
-      </c>
-      <c r="B154" s="198"/>
-      <c r="C154" s="80"/>
-      <c r="D154" s="81"/>
-      <c r="E154" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F154" s="64">
-        <f>COUNT(F145:F150)</f>
-        <v>0</v>
-      </c>
-      <c r="I154" s="58"/>
-      <c r="J154" s="63"/>
-    </row>
-    <row r="155" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="196"/>
-      <c r="B155" s="199"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="58"/>
-      <c r="E155" s="58"/>
-      <c r="F155" s="55"/>
-      <c r="G155" s="58"/>
-      <c r="H155" s="58"/>
-      <c r="I155" s="58"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="58"/>
-      <c r="F156" s="55"/>
-      <c r="G156" s="58"/>
-      <c r="H156" s="58"/>
-      <c r="I156" s="58"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B157" s="184" t="s">
-        <v>79</v>
-      </c>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="55"/>
-      <c r="G157" s="58"/>
-      <c r="H157" s="58"/>
-      <c r="I157" s="58"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" s="19"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
-      <c r="F158" s="55"/>
-      <c r="G158" s="58"/>
-      <c r="H158" s="58"/>
-      <c r="I158" s="58"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="B159" s="186" t="e">
-        <f>AVERAGE(F105:F110,F145:F150)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="55"/>
-      <c r="G159" s="58"/>
-      <c r="H159" s="58"/>
-      <c r="I159" s="58"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B160" s="185" t="e">
-        <f>STDEV(F105:F110,F145:F150)/B159</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C160" s="58"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="58"/>
-      <c r="F160" s="55"/>
-      <c r="G160" s="58"/>
-      <c r="H160" s="58"/>
-      <c r="I160" s="58"/>
-    </row>
-    <row r="161" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="64">
-        <f>COUNT(F105:F110,F145:F150)</f>
-        <v>0</v>
-      </c>
-      <c r="C161" s="58"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="58"/>
-      <c r="F161" s="55"/>
-      <c r="G161" s="58"/>
-      <c r="H161" s="58"/>
-      <c r="I161" s="58"/>
-    </row>
-    <row r="162" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="98"/>
-      <c r="B162" s="98"/>
-      <c r="C162" s="99"/>
-      <c r="D162" s="99"/>
-      <c r="E162" s="99"/>
-      <c r="F162" s="99"/>
-      <c r="G162" s="99"/>
-      <c r="H162" s="99"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B163" s="204" t="s">
-        <v>63</v>
-      </c>
-      <c r="C163" s="204"/>
-      <c r="E163" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F163" s="126"/>
-      <c r="G163" s="204" t="s">
-        <v>64</v>
-      </c>
-      <c r="H163" s="204"/>
-    </row>
-    <row r="164" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="127" t="s">
-        <v>11</v>
-      </c>
-      <c r="B164" s="122"/>
-      <c r="C164" s="122"/>
-      <c r="E164" s="122"/>
-      <c r="F164" s="58"/>
-      <c r="G164" s="124"/>
-      <c r="H164" s="124"/>
-    </row>
-    <row r="165" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="B165" s="123"/>
-      <c r="C165" s="123"/>
-      <c r="E165" s="123"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="125"/>
-      <c r="H165" s="125"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="54"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="55"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="55"/>
-      <c r="F166" s="56"/>
-      <c r="G166" s="55"/>
-      <c r="H166" s="55"/>
-      <c r="I166" s="58"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="54"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="55"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="56"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="55"/>
-      <c r="I167" s="58"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="54"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="55"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="55"/>
-      <c r="F168" s="56"/>
-      <c r="G168" s="55"/>
-      <c r="H168" s="55"/>
-      <c r="I168" s="58"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="54"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="55"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="56"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="55"/>
-      <c r="I169" s="58"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="54"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="55"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="55"/>
-      <c r="F170" s="56"/>
-      <c r="G170" s="55"/>
-      <c r="H170" s="55"/>
-      <c r="I170" s="58"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="54"/>
-      <c r="B171" s="54"/>
-      <c r="C171" s="55"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="55"/>
-      <c r="F171" s="56"/>
-      <c r="G171" s="55"/>
-      <c r="H171" s="55"/>
-      <c r="I171" s="58"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="54"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="55"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="56"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="55"/>
-      <c r="I172" s="58"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="54"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="55"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="55"/>
-      <c r="F173" s="56"/>
-      <c r="G173" s="55"/>
-      <c r="H173" s="55"/>
-      <c r="I173" s="58"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="54"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="55"/>
-      <c r="D174" s="55"/>
-      <c r="E174" s="55"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="55"/>
-      <c r="H174" s="55"/>
-      <c r="I174" s="58"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="95"/>
+      <c r="E124" s="95"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="97"/>
+      <c r="H124" s="97"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="51"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="52"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
+      <c r="I125" s="54"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="51"/>
+      <c r="B126" s="51"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
+      <c r="I126" s="54"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="51"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="54"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="51"/>
+      <c r="B128" s="51"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="52"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
+      <c r="I128" s="54"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="51"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="52"/>
+      <c r="I129" s="54"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="51"/>
+      <c r="B130" s="51"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="54"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="51"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
+      <c r="I131" s="54"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="51"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="54"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="51"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="52"/>
+      <c r="H133" s="52"/>
+      <c r="I133" s="54"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="24">
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="G163:H163"/>
+  <mergeCells count="34">
+    <mergeCell ref="A117:B118"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="A99:B100"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="F36:G36"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D60:D63"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="A136:B137"/>
-    <mergeCell ref="A154:B155"/>
-    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A96:B97"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="aboveAverage" priority="8"/>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+      <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
+      <formula>0.02</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I92">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>0.02</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;P of &amp;N&amp;R&amp;D &amp;T</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="77" max="7" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>